--- a/biology/Biochimie/Biomacromolecules/Biomacromolecules.xlsx
+++ b/biology/Biochimie/Biomacromolecules/Biomacromolecules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Biomacromolecules (abrégé en Biomacromolecules) est une revue scientifique à comité de lecture. Ce mensuel publie des articles de recherches originales dans concernant les interactions entre polymères et systèmes biologiques[1].
-D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 6,988 en 2020[2]. Actuellement[Quand ?], le directeur de publication est le Professeur Sébastien Lecommandoux (ENSCBP-Bordeaux INP, Laboratoire de Chimie des Polymères Organiques (LCPO), France)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biomacromolecules (abrégé en Biomacromolecules) est une revue scientifique à comité de lecture. Ce mensuel publie des articles de recherches originales dans concernant les interactions entre polymères et systèmes biologiques.
+D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 6,988 en 2020. Actuellement[Quand ?], le directeur de publication est le Professeur Sébastien Lecommandoux (ENSCBP-Bordeaux INP, Laboratoire de Chimie des Polymères Organiques (LCPO), France).
 </t>
         </is>
       </c>
